--- a/results/birth/SEED_77/result.xlsx
+++ b/results/birth/SEED_77/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2178.926935682297</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>364.5502542432149</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>375.1174369049072</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>372.6874611028035</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>385.412456219991</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>387.8468997510274</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>398.8810404586792</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>468.3004997253418</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>632.0362027867635</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2260.177084943846</v>
       </c>
+      <c r="AK5" t="n">
+        <v>488.1188845841926</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>490.9015341173518</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>496.1278981817628</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>516.3345173282255</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>511.3156779491765</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>530.2640675619991</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>616.0246302072137</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>802.9994230405539</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -968,7 +1068,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9991992931711882</v>
+        <v>0.9991992931711879</v>
       </c>
       <c r="D6" t="n">
         <v>0.9993032984727422</v>
@@ -980,10 +1080,10 @@
         <v>0.9991307190787031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9990826797441793</v>
+        <v>0.9990826797441795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9990654799112073</v>
+        <v>0.9990654799112074</v>
       </c>
       <c r="I6" t="n">
         <v>0.9989547085381935</v>
@@ -1001,10 +1101,10 @@
         <v>0.9991733702937071</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9991473310068104</v>
+        <v>0.9991473310068102</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9990965841115127</v>
+        <v>0.9990965841115125</v>
       </c>
       <c r="P6" t="n">
         <v>0.9990592326848874</v>
@@ -1016,7 +1116,7 @@
         <v>0.9989016259455942</v>
       </c>
       <c r="S6" t="n">
-        <v>0.998732780470213</v>
+        <v>0.9987327804702132</v>
       </c>
       <c r="T6" t="n">
         <v>0.9977298326434747</v>
@@ -1037,7 +1137,7 @@
         <v>0.9976612055650412</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9964284314203192</v>
+        <v>0.9964284314203194</v>
       </c>
       <c r="AA6" t="n">
         <v>0.9949195081430312</v>
@@ -1055,19 +1155,43 @@
         <v>0.9982022252131467</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9976967046033124</v>
+        <v>0.9976967046033126</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9970882388552272</v>
+        <v>0.9970882388552275</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9952710063268391</v>
+        <v>0.9952710063268393</v>
       </c>
       <c r="AI6" t="n">
         <v>0.9929420356408101</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.9815784835443925</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9991879336740994</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9991866819810282</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9991677449710465</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9990760688237249</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9991171175682564</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9990372187943366</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.998685624979273</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9976895010558451</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>1933.340806582769</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>386.9071183077494</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>391.8452214241028</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>394.7899603398641</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>410.3363808822632</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>407.6349104817708</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>430.6413155810038</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>488.0079048220317</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>622.1916534996033</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2002.633725965059</v>
       </c>
+      <c r="AK8" t="n">
+        <v>504.2130719300427</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>506.04214114645</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>511.8861950619579</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>524.4459903649047</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>520.1815445340387</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>559.3546239193943</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>615.0029544415552</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>770.270552081358</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1305,7 +1477,7 @@
         <v>0.9992281859804188</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992310124246276</v>
+        <v>0.999231012424628</v>
       </c>
       <c r="E9" t="n">
         <v>0.9992175830610736</v>
@@ -1320,13 +1492,13 @@
         <v>0.999138457091886</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9990944936311803</v>
+        <v>0.9990944936311805</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9989418982945002</v>
+        <v>0.9989418982945004</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9987152983210841</v>
+        <v>0.9987152983210839</v>
       </c>
       <c r="L9" t="n">
         <v>0.9969245141616269</v>
@@ -1341,7 +1513,7 @@
         <v>0.9991839633644712</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9991585243270575</v>
+        <v>0.9991585243270578</v>
       </c>
       <c r="Q9" t="n">
         <v>0.9991232552485669</v>
@@ -1350,13 +1522,13 @@
         <v>0.9990254859900052</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9987337773809466</v>
+        <v>0.9987337773809464</v>
       </c>
       <c r="T9" t="n">
         <v>0.997100723408693</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9990807948007826</v>
+        <v>0.9990807948007823</v>
       </c>
       <c r="V9" t="n">
         <v>0.9989045833904693</v>
@@ -1374,7 +1546,7 @@
         <v>0.9972477222071974</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9958983316679698</v>
+        <v>0.9958983316679696</v>
       </c>
       <c r="AB9" t="n">
         <v>0.9861774550704379</v>
@@ -1383,25 +1555,49 @@
         <v>0.9990431544743539</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9988187870179208</v>
+        <v>0.9988187870179206</v>
       </c>
       <c r="AE9" t="n">
         <v>0.9985536866718728</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9982461480441476</v>
+        <v>0.9982461480441478</v>
       </c>
       <c r="AG9" t="n">
         <v>0.9978911833700604</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.9967750919382603</v>
+        <v>0.9967750919382601</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.9952817102225741</v>
+        <v>0.9952817102225738</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.9859360181558497</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9992118072628652</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9992042720102969</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9991942645947507</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9991707895843067</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9991540331884421</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9989929634670944</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.998801893254484</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9979639042031444</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>2189.228109935125</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>304.1784049860636</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>307.3772289594015</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>320.7002543195089</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>328.0550687090556</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>330.4716032854716</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>413.1740501403809</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>432.0601649347941</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>635.7011430422465</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>2241.553496379388</v>
       </c>
+      <c r="AK11" t="n">
+        <v>414.6069866370123</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>417.2709115113167</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>437.373755247712</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>434.9923360580887</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>438.7882270082891</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>539.7114585892352</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>558.2315440993995</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>807.6715266006347</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1636,7 +1880,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9993731166697035</v>
+        <v>0.9993731166697037</v>
       </c>
       <c r="D12" t="n">
         <v>0.9993633432802946</v>
@@ -1645,19 +1889,19 @@
         <v>0.9992209262457696</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9992033938969501</v>
+        <v>0.9992033938969503</v>
       </c>
       <c r="G12" t="n">
         <v>0.9991758591266078</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9991380417604658</v>
+        <v>0.9991380417604657</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9990894058143457</v>
+        <v>0.9990894058143459</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9989200036231278</v>
+        <v>0.9989200036231276</v>
       </c>
       <c r="K12" t="n">
         <v>0.9986744861765855</v>
@@ -1675,7 +1919,7 @@
         <v>0.9993855962102284</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9993641813130665</v>
+        <v>0.9993641813130667</v>
       </c>
       <c r="Q12" t="n">
         <v>0.9993298265669909</v>
@@ -1684,10 +1928,10 @@
         <v>0.9992339541212485</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9990168502602566</v>
+        <v>0.9990168502602568</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9979401920321239</v>
+        <v>0.9979401920321237</v>
       </c>
       <c r="U12" t="n">
         <v>0.9991368578165936</v>
@@ -1699,7 +1943,7 @@
         <v>0.9984301234256334</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9979494391695747</v>
+        <v>0.9979494391695749</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9973736737163049</v>
@@ -1708,7 +1952,7 @@
         <v>0.9954657605735933</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9927507760737694</v>
+        <v>0.9927507760737696</v>
       </c>
       <c r="AB12" t="n">
         <v>0.9782776809202156</v>
@@ -1726,7 +1970,7 @@
         <v>0.9978534363496293</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9972577408801065</v>
+        <v>0.9972577408801063</v>
       </c>
       <c r="AH12" t="n">
         <v>0.9953714729864215</v>
@@ -1735,17 +1979,42 @@
         <v>0.9929154054309812</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.9800529817982395</v>
+        <v>0.9800529817982397</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.9993642464465653</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9993571885567365</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9992852705233805</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9993080164224308</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9992893610691695</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9988770403184151</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9988141820984682</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.997571330147948</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
